--- a/code/PhaseI/data/iccps/Feeder9.xlsx
+++ b/code/PhaseI/data/iccps/Feeder9.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Time</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Consumer_9_1</t>
+  </si>
+  <si>
+    <t>NetConsumption_9</t>
   </si>
 </sst>
 </file>
@@ -355,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1048576"/>
+      <selection activeCell="G3" sqref="G3:G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -367,7 +370,7 @@
     <col min="2" max="6" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,8 +389,11 @@
       <c r="F1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -406,8 +412,12 @@
       <c r="F2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f>SUM(B2:F2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -426,8 +436,12 @@
       <c r="F3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="0">SUM(B3:F3)</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -446,8 +460,12 @@
       <c r="F4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3.125E-2</v>
       </c>
@@ -466,8 +484,12 @@
       <c r="F5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -486,8 +508,12 @@
       <c r="F6">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -506,8 +532,12 @@
       <c r="F7">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6.25E-2</v>
       </c>
@@ -526,8 +556,12 @@
       <c r="F8">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7.2916666666666671E-2</v>
       </c>
@@ -546,8 +580,12 @@
       <c r="F9">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -566,8 +604,12 @@
       <c r="F10">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9.375E-2</v>
       </c>
@@ -586,8 +628,12 @@
       <c r="F11">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.10416666666666667</v>
       </c>
@@ -606,8 +652,12 @@
       <c r="F12">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.11458333333333333</v>
       </c>
@@ -626,8 +676,12 @@
       <c r="F13">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.125</v>
       </c>
@@ -646,8 +700,12 @@
       <c r="F14">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.13541666666666666</v>
       </c>
@@ -666,8 +724,12 @@
       <c r="F15">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.14583333333333334</v>
       </c>
@@ -686,8 +748,12 @@
       <c r="F16">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.15625</v>
       </c>
@@ -706,8 +772,12 @@
       <c r="F17">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -726,8 +796,12 @@
       <c r="F18">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.17708333333333334</v>
       </c>
@@ -746,8 +820,12 @@
       <c r="F19">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.1875</v>
       </c>
@@ -766,8 +844,12 @@
       <c r="F20">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.19791666666666666</v>
       </c>
@@ -786,8 +868,12 @@
       <c r="F21">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -806,8 +892,12 @@
       <c r="F22">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.21875</v>
       </c>
@@ -826,8 +916,12 @@
       <c r="F23">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.22916666666666666</v>
       </c>
@@ -846,8 +940,12 @@
       <c r="F24">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.23958333333333334</v>
       </c>
@@ -866,8 +964,12 @@
       <c r="F25">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.25</v>
       </c>
@@ -886,8 +988,12 @@
       <c r="F26">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>1.9000000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.26041666666666669</v>
       </c>
@@ -906,8 +1012,12 @@
       <c r="F27">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.27083333333333331</v>
       </c>
@@ -926,8 +1036,12 @@
       <c r="F28">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.28125</v>
       </c>
@@ -946,8 +1060,12 @@
       <c r="F29">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -966,8 +1084,12 @@
       <c r="F30">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.30208333333333331</v>
       </c>
@@ -986,8 +1108,12 @@
       <c r="F31">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.3125</v>
       </c>
@@ -1006,8 +1132,12 @@
       <c r="F32">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.32291666666666669</v>
       </c>
@@ -1026,8 +1156,12 @@
       <c r="F33">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -1046,8 +1180,12 @@
       <c r="F34">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0.34375</v>
       </c>
@@ -1066,8 +1204,12 @@
       <c r="F35">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0.35416666666666669</v>
       </c>
@@ -1086,8 +1228,12 @@
       <c r="F36">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0.36458333333333331</v>
       </c>
@@ -1106,8 +1252,12 @@
       <c r="F37">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0.375</v>
       </c>
@@ -1126,8 +1276,12 @@
       <c r="F38">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0.38541666666666669</v>
       </c>
@@ -1146,8 +1300,12 @@
       <c r="F39">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0.39583333333333331</v>
       </c>
@@ -1166,8 +1324,12 @@
       <c r="F40">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0.40625</v>
       </c>
@@ -1186,8 +1348,12 @@
       <c r="F41">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -1206,8 +1372,12 @@
       <c r="F42">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0.42708333333333331</v>
       </c>
@@ -1226,8 +1396,12 @@
       <c r="F43">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0.4375</v>
       </c>
@@ -1246,8 +1420,12 @@
       <c r="F44">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>0.44791666666666669</v>
       </c>
@@ -1266,8 +1444,12 @@
       <c r="F45">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -1286,8 +1468,12 @@
       <c r="F46">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>0.46875</v>
       </c>
@@ -1306,8 +1492,12 @@
       <c r="F47">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0.47916666666666669</v>
       </c>
@@ -1326,8 +1516,12 @@
       <c r="F48">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>0.48958333333333331</v>
       </c>
@@ -1346,8 +1540,12 @@
       <c r="F49">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>0.5</v>
       </c>
@@ -1366,8 +1564,12 @@
       <c r="F50">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>0.51041666666666663</v>
       </c>
@@ -1386,8 +1588,12 @@
       <c r="F51">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>0.52083333333333337</v>
       </c>
@@ -1406,8 +1612,12 @@
       <c r="F52">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>0.53125</v>
       </c>
@@ -1426,8 +1636,12 @@
       <c r="F53">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>3.8000000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -1446,8 +1660,12 @@
       <c r="F54">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>0.55208333333333337</v>
       </c>
@@ -1466,8 +1684,12 @@
       <c r="F55">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>0.5625</v>
       </c>
@@ -1486,8 +1708,12 @@
       <c r="F56">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>0.57291666666666663</v>
       </c>
@@ -1506,8 +1732,12 @@
       <c r="F57">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -1526,8 +1756,12 @@
       <c r="F58">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>0.59375</v>
       </c>
@@ -1546,8 +1780,12 @@
       <c r="F59">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>0.60416666666666663</v>
       </c>
@@ -1566,8 +1804,12 @@
       <c r="F60">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>0.61458333333333337</v>
       </c>
@@ -1586,8 +1828,12 @@
       <c r="F61">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>0.625</v>
       </c>
@@ -1606,8 +1852,12 @@
       <c r="F62">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>2.6999999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>0.63541666666666663</v>
       </c>
@@ -1626,8 +1876,12 @@
       <c r="F63">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>0.64583333333333337</v>
       </c>
@@ -1646,8 +1900,12 @@
       <c r="F64">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>0.65625</v>
       </c>
@@ -1666,8 +1924,12 @@
       <c r="F65">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -1686,8 +1948,12 @@
       <c r="F66">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>0.67708333333333337</v>
       </c>
@@ -1706,8 +1972,12 @@
       <c r="F67">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <f t="shared" ref="G67:G97" si="1">SUM(B67:F67)</f>
+        <v>2.5999999999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>0.6875</v>
       </c>
@@ -1726,8 +1996,12 @@
       <c r="F68">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>0.69791666666666663</v>
       </c>
@@ -1746,8 +2020,12 @@
       <c r="F69">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -1766,8 +2044,12 @@
       <c r="F70">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>0.71875</v>
       </c>
@@ -1786,8 +2068,12 @@
       <c r="F71">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>0.72916666666666663</v>
       </c>
@@ -1806,8 +2092,12 @@
       <c r="F72">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <f t="shared" si="1"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>0.73958333333333337</v>
       </c>
@@ -1826,8 +2116,12 @@
       <c r="F73">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>0.75</v>
       </c>
@@ -1846,8 +2140,12 @@
       <c r="F74">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <f t="shared" si="1"/>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>0.76041666666666663</v>
       </c>
@@ -1866,8 +2164,12 @@
       <c r="F75">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <f t="shared" si="1"/>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>0.77083333333333337</v>
       </c>
@@ -1886,8 +2188,12 @@
       <c r="F76">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <f t="shared" si="1"/>
+        <v>3.3000000000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>0.78125</v>
       </c>
@@ -1906,8 +2212,12 @@
       <c r="F77">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <f t="shared" si="1"/>
+        <v>3.4000000000000004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -1926,8 +2236,12 @@
       <c r="F78">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>0.80208333333333337</v>
       </c>
@@ -1946,8 +2260,12 @@
       <c r="F79">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <f t="shared" si="1"/>
+        <v>3.8000000000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>0.8125</v>
       </c>
@@ -1966,8 +2284,12 @@
       <c r="F80">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <f t="shared" si="1"/>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -1986,8 +2308,12 @@
       <c r="F81">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <f t="shared" si="1"/>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -2006,8 +2332,12 @@
       <c r="F82">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <f t="shared" si="1"/>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>0.84375</v>
       </c>
@@ -2026,8 +2356,12 @@
       <c r="F83">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <f t="shared" si="1"/>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>0.85416666666666663</v>
       </c>
@@ -2046,8 +2380,12 @@
       <c r="F84">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <f t="shared" si="1"/>
+        <v>3.8000000000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>0.86458333333333337</v>
       </c>
@@ -2066,8 +2404,12 @@
       <c r="F85">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <f t="shared" si="1"/>
+        <v>3.8000000000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>0.875</v>
       </c>
@@ -2086,8 +2428,12 @@
       <c r="F86">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <f t="shared" si="1"/>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>0.88541666666666663</v>
       </c>
@@ -2106,8 +2452,12 @@
       <c r="F87">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <f t="shared" si="1"/>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>0.89583333333333337</v>
       </c>
@@ -2126,8 +2476,12 @@
       <c r="F88">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>0.90625</v>
       </c>
@@ -2146,8 +2500,12 @@
       <c r="F89">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89">
+        <f t="shared" si="1"/>
+        <v>3.4000000000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -2166,8 +2524,12 @@
       <c r="F90">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90">
+        <f t="shared" si="1"/>
+        <v>3.4000000000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>0.92708333333333337</v>
       </c>
@@ -2186,8 +2548,12 @@
       <c r="F91">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91">
+        <f t="shared" si="1"/>
+        <v>3.4000000000000004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>0.9375</v>
       </c>
@@ -2206,8 +2572,12 @@
       <c r="F92">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92">
+        <f t="shared" si="1"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>0.94791666666666663</v>
       </c>
@@ -2226,8 +2596,12 @@
       <c r="F93">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93">
+        <f t="shared" si="1"/>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>0.95833333333333337</v>
       </c>
@@ -2246,8 +2620,12 @@
       <c r="F94">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>0.96875</v>
       </c>
@@ -2266,8 +2644,12 @@
       <c r="F95">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>0.97916666666666663</v>
       </c>
@@ -2286,8 +2668,12 @@
       <c r="F96">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>0.98958333333333337</v>
       </c>
@@ -2305,6 +2691,10 @@
       </c>
       <c r="F97">
         <v>0.3</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="1"/>
+        <v>2.1</v>
       </c>
     </row>
   </sheetData>
